--- a/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>56192</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44474</v>
+        <v>44495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68081</v>
+        <v>69994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09746331510553648</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07713885457814733</v>
+        <v>0.0771757996350486</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1180850133040615</v>
+        <v>0.1214028825063211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>285</v>
@@ -762,19 +762,19 @@
         <v>146302</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>130960</v>
+        <v>130851</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162651</v>
+        <v>163066</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1781309141693202</v>
+        <v>0.1781309141693201</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1594511242729835</v>
+        <v>0.1593185416251933</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1980378620307739</v>
+        <v>0.1985427493258324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>371</v>
@@ -783,19 +783,19 @@
         <v>202493</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>183053</v>
+        <v>181844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226402</v>
+        <v>225219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1448597446227445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1309521770628404</v>
+        <v>0.1300877653913291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1619635883942948</v>
+        <v>0.1611167916466872</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>520352</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>508463</v>
+        <v>506550</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>532070</v>
+        <v>532049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9025366848944637</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8819149866959387</v>
+        <v>0.8785971174936789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9228611454218529</v>
+        <v>0.9228242003649513</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1141</v>
@@ -833,19 +833,19 @@
         <v>675013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>658664</v>
+        <v>658249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>690355</v>
+        <v>690464</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8218690858306799</v>
+        <v>0.8218690858306797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8019621379692259</v>
+        <v>0.8014572506741677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8405488757270165</v>
+        <v>0.8406814583748067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1744</v>
@@ -854,19 +854,19 @@
         <v>1195366</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1171457</v>
+        <v>1172640</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1214806</v>
+        <v>1216015</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8551402553772554</v>
+        <v>0.8551402553772555</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8380364116057053</v>
+        <v>0.8388832083533128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8690478229371598</v>
+        <v>0.8699122346086707</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>90826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74795</v>
+        <v>74214</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109661</v>
+        <v>110061</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04073452300567026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03354491150255481</v>
+        <v>0.03328446246395142</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04918205676006933</v>
+        <v>0.04936130990825206</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>229</v>
@@ -979,19 +979,19 @@
         <v>140366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123339</v>
+        <v>123487</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160191</v>
+        <v>159776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06468301519246435</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05683681422605796</v>
+        <v>0.05690501933893725</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07381904860949934</v>
+        <v>0.07362774206496833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>333</v>
@@ -1000,19 +1000,19 @@
         <v>231191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206617</v>
+        <v>203750</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>258761</v>
+        <v>259906</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05254644939543748</v>
+        <v>0.05254644939543749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04696111646833882</v>
+        <v>0.04630940600086382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05881253816307679</v>
+        <v>0.05907278519724735</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2138872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2120037</v>
+        <v>2119637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2154903</v>
+        <v>2155484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9592654769943297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9508179432399301</v>
+        <v>0.9506386900917475</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9664550884974451</v>
+        <v>0.9667155375360484</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2690</v>
@@ -1050,19 +1050,19 @@
         <v>2029690</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2009865</v>
+        <v>2010280</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2046717</v>
+        <v>2046569</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9353169848075357</v>
+        <v>0.9353169848075356</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9261809513905005</v>
+        <v>0.9263722579350315</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9431631857739421</v>
+        <v>0.9430949806610627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4577</v>
@@ -1071,19 +1071,19 @@
         <v>4168563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4140993</v>
+        <v>4139848</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4193137</v>
+        <v>4196004</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9474535506045625</v>
+        <v>0.9474535506045626</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9411874618369233</v>
+        <v>0.9409272148027527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.953038883531661</v>
+        <v>0.9536905939991365</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>16711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10448</v>
+        <v>9815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27025</v>
+        <v>26019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02351360404644943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01470019371128666</v>
+        <v>0.01381039715898445</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03802476319236064</v>
+        <v>0.03660999910980952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1196,19 +1196,19 @@
         <v>29764</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22594</v>
+        <v>21126</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40939</v>
+        <v>40104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04057706665658822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03080247775955933</v>
+        <v>0.02880017150621221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05581127087230765</v>
+        <v>0.05467319592071748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -1217,19 +1217,19 @@
         <v>46476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35824</v>
+        <v>35633</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60424</v>
+        <v>61139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03218008380666285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02480459962219412</v>
+        <v>0.02467223678569071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0418378449011666</v>
+        <v>0.04233322873121115</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>694005</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683691</v>
+        <v>684697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>700268</v>
+        <v>700901</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9764863959535507</v>
+        <v>0.9764863959535505</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9619752368076394</v>
+        <v>0.9633900008901904</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9852998062887132</v>
+        <v>0.9861896028410155</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>956</v>
@@ -1267,19 +1267,19 @@
         <v>703762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>692587</v>
+        <v>693422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>710932</v>
+        <v>712400</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9594229333434118</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9441887291276919</v>
+        <v>0.9453268040792824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9691975222404408</v>
+        <v>0.9711998284937877</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1618</v>
@@ -1288,19 +1288,19 @@
         <v>1397766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1383818</v>
+        <v>1383103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1408418</v>
+        <v>1408609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9678199161933372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.958162155098833</v>
+        <v>0.9576667712687889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9751954003778057</v>
+        <v>0.9753277632143093</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>163729</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>141738</v>
+        <v>141281</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187596</v>
+        <v>188708</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04655416927090484</v>
+        <v>0.04655416927090485</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04030121510286008</v>
+        <v>0.04017141648591784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05334047853913867</v>
+        <v>0.05365652467437124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>560</v>
@@ -1413,19 +1413,19 @@
         <v>316432</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291363</v>
+        <v>291279</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>343900</v>
+        <v>341928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08495045687523885</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07822034046215078</v>
+        <v>0.07819791841292127</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09232464361838942</v>
+        <v>0.09179530370882336</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>768</v>
@@ -1434,19 +1434,19 @@
         <v>480161</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>445484</v>
+        <v>447033</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>517485</v>
+        <v>517441</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0663035604383535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0615152020167922</v>
+        <v>0.06172910160313788</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0714574966669458</v>
+        <v>0.07145151195009122</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3353229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3329362</v>
+        <v>3328250</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3375220</v>
+        <v>3375677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9534458307290952</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9466595214608612</v>
+        <v>0.9463434753256288</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9596987848971399</v>
+        <v>0.9598285835140824</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4787</v>
@@ -1484,19 +1484,19 @@
         <v>3408465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3380997</v>
+        <v>3382969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3433534</v>
+        <v>3433618</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9150495431247612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9076753563816102</v>
+        <v>0.9082046962911766</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9217796595378491</v>
+        <v>0.9218020815870787</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7939</v>
@@ -1505,19 +1505,19 @@
         <v>6761694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6724370</v>
+        <v>6724414</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6796371</v>
+        <v>6794822</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9336964395616464</v>
+        <v>0.9336964395616463</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9285425033330543</v>
+        <v>0.9285484880499091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9384847979832078</v>
+        <v>0.9382708983968622</v>
       </c>
     </row>
     <row r="15">
